--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlRating.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlRating.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C8266-675A-4CF9-A678-AA7F5B1B5AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="205">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4250,12 +4251,20 @@
   <si>
     <t>Eloan評級檔</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseNoDescFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo DESC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -4576,11 +4585,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -4589,9 +4598,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4601,10 +4607,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4613,9 +4619,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4634,10 +4637,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4649,26 +4649,20 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4685,7 +4679,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4694,7 +4688,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4709,28 +4703,28 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4739,29 +4733,29 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4770,53 +4764,50 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4837,13 +4828,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="5"/>
-    <cellStyle name="一般 2 3" xfId="4"/>
-    <cellStyle name="一般 3" xfId="7"/>
-    <cellStyle name="一般_BOT Stage Table Mapping v1.0" xfId="3"/>
-    <cellStyle name="一般_CIF_JSH DW Physical Mapping" xfId="6"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般_BOT Stage Table Mapping v1.0" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般_CIF_JSH DW Physical Mapping" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4934,6 +4925,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4969,6 +4977,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5144,10 +5169,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -5156,1479 +5181,1477 @@
     <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="5" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="7" max="7" width="35.33203125" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="20"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="21"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="21"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="43">
         <v>6</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1">
-      <c r="A11" s="15">
+    <row r="11" spans="1:7">
+      <c r="A11" s="13">
         <f t="shared" ref="A11:A17" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="43">
         <v>6</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="31.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:7" ht="31.2">
+      <c r="A12" s="13">
         <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="43">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1">
-      <c r="A13" s="15">
+    <row r="13" spans="1:7">
+      <c r="A13" s="13">
         <f>A12+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="45">
         <v>100</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1">
-      <c r="A14" s="15">
+    <row r="14" spans="1:7">
+      <c r="A14" s="13">
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="43">
         <v>30</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="31.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:7" ht="31.2">
+      <c r="A15" s="13">
         <f>A14+1</f>
         <v>7</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="47">
         <v>40</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="26"/>
+      <c r="G15" s="48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="43">
         <v>30</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="55" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="15">
+    <row r="17" spans="1:7">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="43">
         <v>2</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="55" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" s="19" customFormat="1" ht="31.2">
-      <c r="A18" s="15">
+    </row>
+    <row r="18" spans="1:7" ht="31.2">
+      <c r="A18" s="13">
         <f t="shared" ref="A18:A28" si="1">A17+1</f>
         <v>10</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="52">
         <v>8</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="19" customFormat="1">
-      <c r="A19" s="15">
+    <row r="19" spans="1:7">
+      <c r="A19" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="54">
         <v>10</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1">
-      <c r="A20" s="15">
+    <row r="20" spans="1:7">
+      <c r="A20" s="13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="56">
         <v>14</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="62" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="46.8">
-      <c r="A21" s="15">
+    <row r="21" spans="1:7" ht="46.8">
+      <c r="A21" s="13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="58">
         <v>8</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="64" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="31.2">
-      <c r="A22" s="15">
+    <row r="22" spans="1:7" ht="31.2">
+      <c r="A22" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="58">
         <v>5</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="64" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="31.2">
-      <c r="A23" s="15">
+    <row r="23" spans="1:7" ht="31.2">
+      <c r="A23" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="13">
         <v>5</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="64" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="59" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="46.8">
-      <c r="A24" s="15">
+    <row r="24" spans="1:7" ht="46.8">
+      <c r="A24" s="13">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="52">
         <v>100</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="49" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.2">
-      <c r="A25" s="15">
+    <row r="25" spans="1:7" ht="31.2">
+      <c r="A25" s="13">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="52">
         <v>5</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="65" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="60" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="31.2">
-      <c r="A26" s="15">
+    <row r="26" spans="1:7" ht="31.2">
+      <c r="A26" s="13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="52">
         <v>5</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="65" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="31.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:7" ht="31.2">
+      <c r="A27" s="13">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="52">
         <v>12</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="65" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="60" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="31.2">
-      <c r="A28" s="15">
+    <row r="28" spans="1:7" ht="31.2">
+      <c r="A28" s="13">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="52">
         <v>5</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="55" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1">
-      <c r="A29" s="30">
+    <row r="29" spans="1:7">
+      <c r="A29" s="13">
         <f t="shared" ref="A29:A69" si="2">A28+1</f>
         <v>21</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="52">
         <v>3</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="48.6">
-      <c r="A30" s="30">
+      <c r="F29" s="26"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="1:7" ht="48.6">
+      <c r="A30" s="13">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="52">
         <v>16</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" ht="187.2">
-      <c r="A31" s="15">
+    <row r="31" spans="1:7" ht="187.2">
+      <c r="A31" s="13">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="52">
         <v>200</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="62.4">
-      <c r="A32" s="30">
+    <row r="32" spans="1:7" ht="62.4">
+      <c r="A32" s="13">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="52">
         <v>5</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="62" t="s">
+      <c r="F32" s="26"/>
+      <c r="G32" s="57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A33" s="30">
+    <row r="33" spans="1:7" ht="62.4">
+      <c r="A33" s="13">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="52">
         <v>5</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A34" s="30">
+    <row r="34" spans="1:7" ht="62.4">
+      <c r="A34" s="13">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="52">
         <v>5</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="62" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="57" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A35" s="30">
+    <row r="35" spans="1:7" ht="62.4">
+      <c r="A35" s="13">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="52">
         <v>5</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="62" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A36" s="30">
+    <row r="36" spans="1:7" ht="62.4">
+      <c r="A36" s="13">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="52">
         <v>5</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="62" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="57" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A37" s="30">
+    <row r="37" spans="1:7" ht="62.4">
+      <c r="A37" s="13">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="52">
         <v>5</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="62" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="57" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="29" customFormat="1" ht="46.8">
-      <c r="A38" s="30">
+    <row r="38" spans="1:7" ht="46.8">
+      <c r="A38" s="13">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="63">
         <v>16</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="62" t="s">
+      <c r="F38" s="26"/>
+      <c r="G38" s="57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A39" s="30">
+    <row r="39" spans="1:7" ht="62.4">
+      <c r="A39" s="13">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="52">
         <v>5</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="62" t="s">
+      <c r="F39" s="26"/>
+      <c r="G39" s="57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A40" s="30">
+    <row r="40" spans="1:7" ht="62.4">
+      <c r="A40" s="13">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="52">
         <v>5</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="62" t="s">
+      <c r="F40" s="26"/>
+      <c r="G40" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A41" s="30">
+    <row r="41" spans="1:7" ht="62.4">
+      <c r="A41" s="13">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="52">
         <v>5</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="62" t="s">
+      <c r="F41" s="26"/>
+      <c r="G41" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A42" s="30">
+    <row r="42" spans="1:7" ht="62.4">
+      <c r="A42" s="13">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="52">
         <v>5</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="62" t="s">
+      <c r="F42" s="26"/>
+      <c r="G42" s="57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="29" customFormat="1" ht="78">
-      <c r="A43" s="30">
+    <row r="43" spans="1:7" ht="78">
+      <c r="A43" s="13">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="52">
         <v>5</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="49" t="s">
+      <c r="F43" s="26"/>
+      <c r="G43" s="44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="29" customFormat="1" ht="31.2">
-      <c r="A44" s="30">
+    <row r="44" spans="1:7" ht="31.2">
+      <c r="A44" s="13">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="52">
         <v>5</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="67" t="s">
+      <c r="F44" s="26"/>
+      <c r="G44" s="62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="29" customFormat="1" ht="31.2">
-      <c r="A45" s="30">
+    <row r="45" spans="1:7" ht="31.2">
+      <c r="A45" s="13">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="52">
         <v>5</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="62" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A46" s="30">
+    <row r="46" spans="1:7" ht="62.4">
+      <c r="A46" s="13">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="52">
         <v>5</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="62" t="s">
+      <c r="F46" s="26"/>
+      <c r="G46" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="29" customFormat="1" ht="93.6">
-      <c r="A47" s="30">
+    <row r="47" spans="1:7" ht="93.6">
+      <c r="A47" s="13">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="52">
         <v>5</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="62" t="s">
+      <c r="F47" s="26"/>
+      <c r="G47" s="57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="29" customFormat="1" ht="93.6">
-      <c r="A48" s="30">
+    <row r="48" spans="1:7" ht="93.6">
+      <c r="A48" s="13">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="52">
         <v>5</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="62" t="s">
+      <c r="F48" s="26"/>
+      <c r="G48" s="57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="46.8">
-      <c r="A49" s="30">
+    <row r="49" spans="1:7" ht="46.8">
+      <c r="A49" s="13">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="52">
         <v>5</v>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="62" t="s">
+      <c r="F49" s="26"/>
+      <c r="G49" s="57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="62.4">
-      <c r="A50" s="30">
+    <row r="50" spans="1:7" ht="62.4">
+      <c r="A50" s="13">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="52">
         <v>5</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="62" t="s">
+      <c r="F50" s="26"/>
+      <c r="G50" s="57" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" ht="46.8">
-      <c r="A51" s="30">
+    <row r="51" spans="1:7" ht="46.8">
+      <c r="A51" s="13">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E51" s="52">
         <v>4</v>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="62" t="s">
+      <c r="F51" s="26"/>
+      <c r="G51" s="57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="29" customFormat="1" ht="124.8">
-      <c r="A52" s="30">
+    <row r="52" spans="1:7" ht="124.8">
+      <c r="A52" s="13">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="52">
         <v>5</v>
       </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="62" t="s">
+      <c r="F52" s="26"/>
+      <c r="G52" s="57" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="29" customFormat="1" ht="31.2">
-      <c r="A53" s="30">
+    <row r="53" spans="1:7" ht="31.2">
+      <c r="A53" s="13">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="57">
+      <c r="E53" s="52">
         <v>1</v>
       </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="62" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="29" customFormat="1" ht="31.2">
-      <c r="A54" s="30">
+    <row r="54" spans="1:7" ht="31.2">
+      <c r="A54" s="13">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="63">
+      <c r="E54" s="58">
         <v>1</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="69" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="29" customFormat="1">
-      <c r="A55" s="30">
+    <row r="55" spans="1:7">
+      <c r="A55" s="13">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="43">
         <v>36</v>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="77" t="s">
+      <c r="F55" s="26"/>
+      <c r="G55" s="72" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="29" customFormat="1" ht="78">
-      <c r="A56" s="30">
+    <row r="56" spans="1:7" ht="78">
+      <c r="A56" s="13">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="43">
         <v>10</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="77" t="s">
+      <c r="F56" s="26"/>
+      <c r="G56" s="72" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="29" customFormat="1">
-      <c r="A57" s="30">
+    <row r="57" spans="1:7">
+      <c r="A57" s="13">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="43">
         <v>4</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="77" t="s">
+      <c r="F57" s="26"/>
+      <c r="G57" s="72" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="29" customFormat="1">
-      <c r="A58" s="30">
+    <row r="58" spans="1:7">
+      <c r="A58" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="54">
         <v>100</v>
       </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="77" t="s">
+      <c r="F58" s="26"/>
+      <c r="G58" s="72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="29" customFormat="1">
-      <c r="A59" s="30">
+    <row r="59" spans="1:7">
+      <c r="A59" s="13">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="43">
         <v>6</v>
       </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="58" t="s">
+      <c r="F59" s="26"/>
+      <c r="G59" s="53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="29" customFormat="1">
-      <c r="A60" s="30">
+    <row r="60" spans="1:7">
+      <c r="A60" s="13">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="48">
+      <c r="E60" s="43">
         <v>100</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="58" t="s">
+      <c r="F60" s="26"/>
+      <c r="G60" s="53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="29" customFormat="1">
-      <c r="A61" s="30">
+    <row r="61" spans="1:7">
+      <c r="A61" s="13">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="59">
+      <c r="E61" s="54">
         <v>30</v>
       </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="58" t="s">
+      <c r="F61" s="26"/>
+      <c r="G61" s="53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="29" customFormat="1">
-      <c r="A62" s="30">
+    <row r="62" spans="1:7">
+      <c r="A62" s="13">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="43">
         <v>40</v>
       </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="58" t="s">
+      <c r="F62" s="26"/>
+      <c r="G62" s="53" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="29" customFormat="1">
-      <c r="A63" s="30">
+    <row r="63" spans="1:7">
+      <c r="A63" s="13">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="48">
+      <c r="E63" s="43">
         <v>2</v>
       </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="58" t="s">
+      <c r="F63" s="26"/>
+      <c r="G63" s="53" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="29" customFormat="1" ht="31.2">
-      <c r="A64" s="30">
+    <row r="64" spans="1:7" ht="31.2">
+      <c r="A64" s="13">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="81">
+      <c r="E64" s="75">
         <v>7</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="78" t="s">
+      <c r="G64" s="73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="29" customFormat="1" ht="125.4" thickBot="1">
-      <c r="A65" s="30">
+    <row r="65" spans="1:7" ht="125.4" thickBot="1">
+      <c r="A65" s="13">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="82">
+      <c r="E65" s="76">
         <v>1</v>
       </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="79" t="s">
+      <c r="F65" s="26"/>
+      <c r="G65" s="74" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="30">
+      <c r="A66" s="13">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="16"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="30">
+      <c r="A67" s="13">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="26">
         <v>6</v>
       </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="16"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="30">
+      <c r="A68" s="13">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="16"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="30">
+      <c r="A69" s="13">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="26">
         <v>6</v>
       </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="16"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="28"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="28"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="28"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="B76" s="35"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="34"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="C79" s="30"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="27"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6647,12 +6670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6664,13 +6687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6681,12 +6704,25 @@
       <c r="B2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="C3" s="25"/>
+      <c r="A3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
